--- a/Calculs/PH4/DataBase_PH4_FileA_V7.xlsx
+++ b/Calculs/PH4/DataBase_PH4_FileA_V7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2ED964-62D2-4749-8BC4-0BA4A6462B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852B90DD-0A85-4CD9-86FB-8AEBE8FC2595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="40" windowWidth="19380" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1113,8 +1113,8 @@
   <dimension ref="A1:AQ75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U9" sqref="U9"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A57" activeCellId="1" sqref="A59:XFD59 A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1963,14 +1963,14 @@
       <c r="F9">
         <v>500</v>
       </c>
-      <c r="G9" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H9">
-        <v>1576</v>
-      </c>
-      <c r="I9">
-        <v>1870</v>
+      <c r="G9" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H9" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1828</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1999,15 +1999,14 @@
       <c r="R9">
         <v>1</v>
       </c>
-      <c r="S9">
-        <v>2.9099999999999999E-5</v>
+      <c r="S9" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" s="12">
-        <f>5-1</f>
-        <v>4</v>
+      <c r="U9" s="14">
+        <v>2</v>
       </c>
       <c r="V9" s="9">
         <v>22.3</v>
@@ -2069,14 +2068,14 @@
       <c r="F10">
         <v>500</v>
       </c>
-      <c r="G10" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H10">
-        <v>1576</v>
-      </c>
-      <c r="I10">
-        <v>1870</v>
+      <c r="G10" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1828</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2175,14 +2174,14 @@
       <c r="F11">
         <v>500</v>
       </c>
-      <c r="G11" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H11">
-        <v>1576</v>
-      </c>
-      <c r="I11">
-        <v>1870</v>
+      <c r="G11" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1828</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2211,15 +2210,14 @@
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11">
-        <v>2.9099999999999999E-5</v>
+      <c r="S11" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11" s="12">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U11" s="14">
+        <v>3</v>
       </c>
       <c r="V11" s="9">
         <v>40.700000000000003</v>
@@ -2281,14 +2279,14 @@
       <c r="F12">
         <v>500</v>
       </c>
-      <c r="G12" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H12">
-        <v>1576</v>
-      </c>
-      <c r="I12">
-        <v>1870</v>
+      <c r="G12" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1828</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2317,15 +2315,14 @@
       <c r="R12">
         <v>1</v>
       </c>
-      <c r="S12">
-        <v>2.9099999999999999E-5</v>
+      <c r="S12" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12" s="12">
-        <f>5-1</f>
-        <v>4</v>
+      <c r="U12" s="14">
+        <v>2</v>
       </c>
       <c r="V12" s="9">
         <v>77.5</v>
@@ -2387,14 +2384,14 @@
       <c r="F13">
         <v>500</v>
       </c>
-      <c r="G13" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H13">
-        <v>1576</v>
-      </c>
-      <c r="I13">
-        <v>1870</v>
+      <c r="G13" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1828</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2423,14 +2420,14 @@
       <c r="R13">
         <v>1</v>
       </c>
-      <c r="S13">
-        <v>2.9099999999999999E-5</v>
+      <c r="S13" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
-        <v>2</v>
+      <c r="U13" s="14">
+        <v>1</v>
       </c>
       <c r="V13" s="9">
         <v>4</v>
@@ -2492,14 +2489,14 @@
       <c r="F14">
         <v>500</v>
       </c>
-      <c r="G14" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H14">
-        <v>1576</v>
-      </c>
-      <c r="I14">
-        <v>1870</v>
+      <c r="G14" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1828</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2597,14 +2594,14 @@
       <c r="F15">
         <v>500</v>
       </c>
-      <c r="G15" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H15">
-        <v>1576</v>
-      </c>
-      <c r="I15">
-        <v>1870</v>
+      <c r="G15" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1828</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2703,14 +2700,14 @@
       <c r="F16">
         <v>500</v>
       </c>
-      <c r="G16" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H16">
-        <v>1576</v>
-      </c>
-      <c r="I16">
-        <v>1870</v>
+      <c r="G16" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I16" s="14">
+        <v>1828</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2739,15 +2736,14 @@
       <c r="R16">
         <v>1</v>
       </c>
-      <c r="S16">
-        <v>2.9099999999999999E-5</v>
+      <c r="S16" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" s="12">
-        <f t="shared" ref="U16:U18" si="16">5-1</f>
-        <v>4</v>
+      <c r="U16" s="14">
+        <v>2</v>
       </c>
       <c r="V16" s="9">
         <v>61.5</v>
@@ -2788,7 +2784,7 @@
       </c>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2808,14 +2804,14 @@
       <c r="F17">
         <v>500</v>
       </c>
-      <c r="G17" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H17">
-        <v>1576</v>
-      </c>
-      <c r="I17">
-        <v>1870</v>
+      <c r="G17" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1828</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2844,15 +2840,14 @@
       <c r="R17">
         <v>1</v>
       </c>
-      <c r="S17">
-        <v>2.9099999999999999E-5</v>
+      <c r="S17" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" s="12">
-        <f t="shared" si="16"/>
-        <v>4</v>
+      <c r="U17" s="14">
+        <v>2</v>
       </c>
       <c r="V17" s="9">
         <v>32.6</v>
@@ -2861,7 +2856,7 @@
         <v>15.5</v>
       </c>
       <c r="X17" s="7" t="str">
-        <f t="shared" ref="X17" si="17">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X17" si="16">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y17" s="2">
@@ -2915,14 +2910,14 @@
       <c r="F18">
         <v>500</v>
       </c>
-      <c r="G18" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H18">
-        <v>1576</v>
-      </c>
-      <c r="I18">
-        <v>1870</v>
+      <c r="G18" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1828</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2951,15 +2946,14 @@
       <c r="R18">
         <v>1</v>
       </c>
-      <c r="S18">
-        <v>2.9099999999999999E-5</v>
+      <c r="S18" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18" s="12">
-        <f t="shared" si="16"/>
-        <v>4</v>
+      <c r="U18" s="14">
+        <v>2</v>
       </c>
       <c r="V18" s="9">
         <v>87.5</v>
@@ -3021,14 +3015,14 @@
       <c r="F19">
         <v>500</v>
       </c>
-      <c r="G19" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H19">
-        <v>1576</v>
-      </c>
-      <c r="I19">
-        <v>1870</v>
+      <c r="G19" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1828</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -3057,14 +3051,14 @@
       <c r="R19">
         <v>1</v>
       </c>
-      <c r="S19">
-        <v>2.9099999999999999E-5</v>
+      <c r="S19" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19">
-        <v>2</v>
+      <c r="U19" s="14">
+        <v>1</v>
       </c>
       <c r="V19" s="9">
         <v>25</v>
@@ -3073,7 +3067,7 @@
         <v>10</v>
       </c>
       <c r="X19" s="7" t="str">
-        <f t="shared" ref="X19" si="18">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
+        <f t="shared" ref="X19" si="17">IF(ISNUMBER(SEARCH("Appui",#REF!)),0,"0")</f>
         <v>0</v>
       </c>
       <c r="Y19" s="2">
@@ -3224,14 +3218,14 @@
       <c r="F21">
         <v>500</v>
       </c>
-      <c r="G21" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H21">
-        <v>1576</v>
-      </c>
-      <c r="I21">
-        <v>1870</v>
+      <c r="G21" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1828</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -3260,14 +3254,14 @@
       <c r="R21">
         <v>1</v>
       </c>
-      <c r="S21">
-        <v>2.9099999999999999E-5</v>
+      <c r="S21" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
-        <v>2</v>
+      <c r="U21" s="14">
+        <v>1</v>
       </c>
       <c r="V21" s="9">
         <v>20.399999999999999</v>
@@ -3328,14 +3322,14 @@
       <c r="F22">
         <v>500</v>
       </c>
-      <c r="G22" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H22">
-        <v>1576</v>
-      </c>
-      <c r="I22">
-        <v>1870</v>
+      <c r="G22" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1828</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3433,14 +3427,14 @@
       <c r="F23">
         <v>500</v>
       </c>
-      <c r="G23" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H23">
-        <v>1576</v>
-      </c>
-      <c r="I23">
-        <v>1870</v>
+      <c r="G23" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1828</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3469,15 +3463,14 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23">
-        <v>2.9099999999999999E-5</v>
+      <c r="S23" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23" s="12">
-        <f>5-1</f>
-        <v>4</v>
+      <c r="U23" s="14">
+        <v>2</v>
       </c>
       <c r="V23" s="9">
         <v>43.2</v>
@@ -3538,14 +3531,14 @@
       <c r="F24">
         <v>500</v>
       </c>
-      <c r="G24" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H24">
-        <v>1576</v>
-      </c>
-      <c r="I24">
-        <v>1870</v>
+      <c r="G24" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1828</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3574,15 +3567,14 @@
       <c r="R24">
         <v>1</v>
       </c>
-      <c r="S24">
-        <v>2.9099999999999999E-5</v>
+      <c r="S24" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24" s="12">
-        <f>10+2</f>
-        <v>12</v>
+      <c r="U24" s="14">
+        <v>4</v>
       </c>
       <c r="V24" s="9">
         <v>77.5</v>
@@ -3643,14 +3635,14 @@
       <c r="F25">
         <v>500</v>
       </c>
-      <c r="G25" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H25">
-        <v>1576</v>
-      </c>
-      <c r="I25">
-        <v>1870</v>
+      <c r="G25" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1828</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -3679,14 +3671,14 @@
       <c r="R25">
         <v>1</v>
       </c>
-      <c r="S25">
-        <v>2.9099999999999999E-5</v>
+      <c r="S25" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25">
-        <v>2</v>
+      <c r="U25" s="14">
+        <v>1</v>
       </c>
       <c r="V25" s="9">
         <v>3</v>
@@ -3747,14 +3739,14 @@
       <c r="F26">
         <v>500</v>
       </c>
-      <c r="G26" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H26">
-        <v>1576</v>
-      </c>
-      <c r="I26">
-        <v>1870</v>
+      <c r="G26" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1828</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3783,15 +3775,14 @@
       <c r="R26">
         <v>1</v>
       </c>
-      <c r="S26">
-        <v>2.9099999999999999E-5</v>
+      <c r="S26" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26" s="12">
-        <f>10+2</f>
-        <v>12</v>
+      <c r="U26" s="14">
+        <v>4</v>
       </c>
       <c r="V26" s="9">
         <v>15</v>
@@ -3852,14 +3843,14 @@
       <c r="F27">
         <v>500</v>
       </c>
-      <c r="G27" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H27">
-        <v>1576</v>
-      </c>
-      <c r="I27">
-        <v>1870</v>
+      <c r="G27" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1828</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3888,14 +3879,14 @@
       <c r="R27">
         <v>1</v>
       </c>
-      <c r="S27">
-        <v>2.9099999999999999E-5</v>
+      <c r="S27" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>2</v>
+      <c r="U27" s="14">
+        <v>1</v>
       </c>
       <c r="V27" s="9">
         <v>5</v>
@@ -3956,14 +3947,14 @@
       <c r="F28">
         <v>500</v>
       </c>
-      <c r="G28" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H28">
-        <v>1576</v>
-      </c>
-      <c r="I28">
-        <v>1870</v>
+      <c r="G28" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H28" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I28" s="14">
+        <v>1828</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -3992,15 +3983,14 @@
       <c r="R28">
         <v>1</v>
       </c>
-      <c r="S28">
-        <v>2.9099999999999999E-5</v>
+      <c r="S28" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28" s="12">
-        <f>5+1</f>
-        <v>6</v>
+      <c r="U28" s="14">
+        <v>2</v>
       </c>
       <c r="V28" s="9">
         <v>77.5</v>
@@ -4060,14 +4050,14 @@
       <c r="F29">
         <v>500</v>
       </c>
-      <c r="G29" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H29">
-        <v>1576</v>
-      </c>
-      <c r="I29">
-        <v>1870</v>
+      <c r="G29" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1828</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -4096,15 +4086,14 @@
       <c r="R29">
         <v>1</v>
       </c>
-      <c r="S29">
-        <v>2.9099999999999999E-5</v>
+      <c r="S29" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29" s="12">
-        <f>10-2</f>
-        <v>8</v>
+      <c r="U29" s="14">
+        <v>4</v>
       </c>
       <c r="V29" s="9">
         <v>41.5</v>
@@ -4164,14 +4153,14 @@
       <c r="F30">
         <v>500</v>
       </c>
-      <c r="G30" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H30">
-        <v>1576</v>
-      </c>
-      <c r="I30">
-        <v>1870</v>
+      <c r="G30" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I30" s="14">
+        <v>1828</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -4200,15 +4189,14 @@
       <c r="R30">
         <v>1</v>
       </c>
-      <c r="S30">
-        <v>2.9099999999999999E-5</v>
+      <c r="S30" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
-      <c r="U30" s="12">
-        <f>5+1</f>
-        <v>6</v>
+      <c r="U30" s="14">
+        <v>2</v>
       </c>
       <c r="V30" s="9">
         <v>95</v>
@@ -4268,14 +4256,14 @@
       <c r="F31">
         <v>500</v>
       </c>
-      <c r="G31" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H31">
-        <v>1576</v>
-      </c>
-      <c r="I31">
-        <v>1870</v>
+      <c r="G31" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1828</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -4304,14 +4292,14 @@
       <c r="R31">
         <v>1</v>
       </c>
-      <c r="S31">
-        <v>2.9099999999999999E-5</v>
+      <c r="S31" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
-      <c r="U31">
-        <v>2</v>
+      <c r="U31" s="14">
+        <v>1</v>
       </c>
       <c r="V31" s="9">
         <v>21</v>
@@ -4467,14 +4455,14 @@
       <c r="F33">
         <v>500</v>
       </c>
-      <c r="G33" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H33">
-        <v>1576</v>
-      </c>
-      <c r="I33">
-        <v>1870</v>
+      <c r="G33" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I33" s="14">
+        <v>1828</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4503,14 +4491,14 @@
       <c r="R33">
         <v>1</v>
       </c>
-      <c r="S33">
-        <v>2.9099999999999999E-5</v>
+      <c r="S33" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
-      <c r="U33">
-        <v>2</v>
+      <c r="U33" s="14">
+        <v>1</v>
       </c>
       <c r="V33" s="9">
         <v>19</v>
@@ -4570,14 +4558,14 @@
       <c r="F34">
         <v>500</v>
       </c>
-      <c r="G34" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H34">
-        <v>1576</v>
-      </c>
-      <c r="I34">
-        <v>1870</v>
+      <c r="G34" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I34" s="14">
+        <v>1828</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -4674,14 +4662,14 @@
       <c r="F35">
         <v>500</v>
       </c>
-      <c r="G35" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H35">
-        <v>1576</v>
-      </c>
-      <c r="I35">
-        <v>1870</v>
+      <c r="G35" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H35" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I35" s="14">
+        <v>1828</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4710,15 +4698,14 @@
       <c r="R35">
         <v>1</v>
       </c>
-      <c r="S35">
-        <v>2.9099999999999999E-5</v>
+      <c r="S35" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35" s="12">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U35" s="14">
+        <v>3</v>
       </c>
       <c r="V35" s="9">
         <v>47</v>
@@ -4778,14 +4765,14 @@
       <c r="F36">
         <v>500</v>
       </c>
-      <c r="G36" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H36">
-        <v>1576</v>
-      </c>
-      <c r="I36">
-        <v>1870</v>
+      <c r="G36" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I36" s="14">
+        <v>1828</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -4814,15 +4801,14 @@
       <c r="R36">
         <v>1</v>
       </c>
-      <c r="S36">
-        <v>2.9099999999999999E-5</v>
+      <c r="S36" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36" s="12">
-        <f>10+2</f>
-        <v>12</v>
+      <c r="U36" s="14">
+        <v>4</v>
       </c>
       <c r="V36" s="9">
         <v>93</v>
@@ -4882,14 +4868,14 @@
       <c r="F37">
         <v>500</v>
       </c>
-      <c r="G37" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H37">
-        <v>1576</v>
-      </c>
-      <c r="I37">
-        <v>1870</v>
+      <c r="G37" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H37" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I37" s="14">
+        <v>1828</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4918,15 +4904,14 @@
       <c r="R37">
         <v>1</v>
       </c>
-      <c r="S37">
-        <v>2.9099999999999999E-5</v>
+      <c r="S37" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37" s="12">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U37" s="14">
+        <v>3</v>
       </c>
       <c r="V37" s="9">
         <v>2</v>
@@ -4986,14 +4971,14 @@
       <c r="F38">
         <v>500</v>
       </c>
-      <c r="G38" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H38">
-        <v>1576</v>
-      </c>
-      <c r="I38">
-        <v>1870</v>
+      <c r="G38" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H38" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1828</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -5089,14 +5074,14 @@
       <c r="F39">
         <v>500</v>
       </c>
-      <c r="G39" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H39">
-        <v>1576</v>
-      </c>
-      <c r="I39">
-        <v>1870</v>
+      <c r="G39" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I39" s="14">
+        <v>1828</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -5125,15 +5110,14 @@
       <c r="R39">
         <v>1</v>
       </c>
-      <c r="S39">
-        <v>2.9099999999999999E-5</v>
+      <c r="S39" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39" s="12">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U39" s="14">
+        <v>3</v>
       </c>
       <c r="V39" s="9">
         <v>4</v>
@@ -5193,14 +5177,14 @@
       <c r="F40">
         <v>500</v>
       </c>
-      <c r="G40" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H40">
-        <v>1576</v>
-      </c>
-      <c r="I40">
-        <v>1870</v>
+      <c r="G40" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I40" s="14">
+        <v>1828</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -5230,15 +5214,14 @@
       <c r="R40">
         <v>1</v>
       </c>
-      <c r="S40">
-        <v>2.9099999999999999E-5</v>
+      <c r="S40" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40" s="12">
-        <f>10+2</f>
-        <v>12</v>
+      <c r="U40" s="14">
+        <v>4</v>
       </c>
       <c r="V40" s="9">
         <v>92.5</v>
@@ -5298,14 +5281,14 @@
       <c r="F41">
         <v>500</v>
       </c>
-      <c r="G41" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H41">
-        <v>1576</v>
-      </c>
-      <c r="I41">
-        <v>1870</v>
+      <c r="G41" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I41" s="14">
+        <v>1828</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -5335,15 +5318,14 @@
       <c r="R41">
         <v>1</v>
       </c>
-      <c r="S41">
-        <v>2.9099999999999999E-5</v>
+      <c r="S41" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41" s="12">
-        <f>7+1</f>
-        <v>8</v>
+      <c r="U41" s="14">
+        <v>3</v>
       </c>
       <c r="V41" s="9">
         <v>44</v>
@@ -5403,14 +5385,14 @@
       <c r="F42">
         <v>500</v>
       </c>
-      <c r="G42" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H42">
-        <v>1576</v>
-      </c>
-      <c r="I42">
-        <v>1870</v>
+      <c r="G42" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I42" s="14">
+        <v>1828</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -5439,15 +5421,14 @@
       <c r="R42">
         <v>1</v>
       </c>
-      <c r="S42">
-        <v>2.9099999999999999E-5</v>
+      <c r="S42" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42" s="12">
-        <f>5+1</f>
-        <v>6</v>
+      <c r="U42" s="14">
+        <v>2</v>
       </c>
       <c r="V42" s="9">
         <v>100</v>
@@ -5507,14 +5488,14 @@
       <c r="F43">
         <v>500</v>
       </c>
-      <c r="G43" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H43">
-        <v>1576</v>
-      </c>
-      <c r="I43">
-        <v>1870</v>
+      <c r="G43" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I43" s="14">
+        <v>1828</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -5543,14 +5524,14 @@
       <c r="R43">
         <v>1</v>
       </c>
-      <c r="S43">
-        <v>2.9099999999999999E-5</v>
+      <c r="S43" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="U43">
-        <v>2</v>
+      <c r="U43" s="14">
+        <v>1</v>
       </c>
       <c r="V43" s="9">
         <v>20</v>
@@ -5706,14 +5687,14 @@
       <c r="F45">
         <v>500</v>
       </c>
-      <c r="G45" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H45">
-        <v>1576</v>
-      </c>
-      <c r="I45">
-        <v>1870</v>
+      <c r="G45" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I45" s="14">
+        <v>1828</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -5742,14 +5723,14 @@
       <c r="R45">
         <v>1</v>
       </c>
-      <c r="S45">
-        <v>2.9099999999999999E-5</v>
+      <c r="S45" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45">
-        <v>2</v>
+      <c r="U45" s="14">
+        <v>1</v>
       </c>
       <c r="V45" s="9">
         <v>19</v>
@@ -5809,14 +5790,14 @@
       <c r="F46">
         <v>500</v>
       </c>
-      <c r="G46" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H46">
-        <v>1576</v>
-      </c>
-      <c r="I46">
-        <v>1870</v>
+      <c r="G46" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I46" s="14">
+        <v>1828</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -5913,14 +5894,14 @@
       <c r="F47">
         <v>500</v>
       </c>
-      <c r="G47" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H47">
-        <v>1576</v>
-      </c>
-      <c r="I47">
-        <v>1870</v>
+      <c r="G47" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I47" s="14">
+        <v>1828</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -5949,15 +5930,14 @@
       <c r="R47">
         <v>1</v>
       </c>
-      <c r="S47">
-        <v>2.9099999999999999E-5</v>
+      <c r="S47" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
-      <c r="U47" s="12">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U47" s="14">
+        <v>3</v>
       </c>
       <c r="V47" s="9">
         <v>50.5</v>
@@ -6017,14 +5997,14 @@
       <c r="F48">
         <v>500</v>
       </c>
-      <c r="G48" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H48">
-        <v>1576</v>
-      </c>
-      <c r="I48">
-        <v>1870</v>
+      <c r="G48" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I48" s="14">
+        <v>1828</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -6053,15 +6033,14 @@
       <c r="R48">
         <v>1</v>
       </c>
-      <c r="S48">
-        <v>2.9099999999999999E-5</v>
+      <c r="S48" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
-      <c r="U48" s="12">
-        <f>10+2</f>
-        <v>12</v>
+      <c r="U48" s="14">
+        <v>4</v>
       </c>
       <c r="V48" s="9">
         <v>95</v>
@@ -6121,14 +6100,14 @@
       <c r="F49">
         <v>500</v>
       </c>
-      <c r="G49" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H49">
-        <v>1576</v>
-      </c>
-      <c r="I49">
-        <v>1870</v>
+      <c r="G49" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I49" s="14">
+        <v>1828</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -6157,15 +6136,14 @@
       <c r="R49">
         <v>1</v>
       </c>
-      <c r="S49">
-        <v>2.9099999999999999E-5</v>
+      <c r="S49" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
-      <c r="U49" s="12">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U49" s="14">
+        <v>3</v>
       </c>
       <c r="V49" s="9">
         <v>0</v>
@@ -6225,14 +6203,14 @@
       <c r="F50">
         <v>500</v>
       </c>
-      <c r="G50" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H50">
-        <v>1576</v>
-      </c>
-      <c r="I50">
-        <v>1870</v>
+      <c r="G50" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I50" s="14">
+        <v>1828</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -6328,14 +6306,14 @@
       <c r="F51">
         <v>500</v>
       </c>
-      <c r="G51" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H51">
-        <v>1576</v>
-      </c>
-      <c r="I51">
-        <v>1870</v>
+      <c r="G51" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1828</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -6364,15 +6342,14 @@
       <c r="R51">
         <v>1</v>
       </c>
-      <c r="S51">
-        <v>2.9099999999999999E-5</v>
+      <c r="S51" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51" s="12">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U51" s="14">
+        <v>3</v>
       </c>
       <c r="V51" s="9">
         <v>5</v>
@@ -6432,14 +6409,14 @@
       <c r="F52">
         <v>500</v>
       </c>
-      <c r="G52" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H52">
-        <v>1576</v>
-      </c>
-      <c r="I52">
-        <v>1870</v>
+      <c r="G52" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I52" s="14">
+        <v>1828</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -6468,14 +6445,14 @@
       <c r="R52">
         <v>1</v>
       </c>
-      <c r="S52">
-        <v>2.9099999999999999E-5</v>
+      <c r="S52" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
       <c r="U52">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V52" s="9">
         <v>82.5</v>
@@ -6535,14 +6512,14 @@
       <c r="F53">
         <v>500</v>
       </c>
-      <c r="G53" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H53">
-        <v>1576</v>
-      </c>
-      <c r="I53">
-        <v>1870</v>
+      <c r="G53" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I53" s="14">
+        <v>1828</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -6572,15 +6549,14 @@
       <c r="R53">
         <v>1</v>
       </c>
-      <c r="S53">
-        <v>2.9099999999999999E-5</v>
+      <c r="S53" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
-      <c r="U53" s="12">
-        <f>7+1</f>
-        <v>8</v>
+      <c r="U53" s="14">
+        <v>3</v>
       </c>
       <c r="V53" s="9">
         <v>43</v>
@@ -6640,14 +6616,14 @@
       <c r="F54">
         <v>500</v>
       </c>
-      <c r="G54" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H54">
-        <v>1576</v>
-      </c>
-      <c r="I54">
-        <v>1870</v>
+      <c r="G54" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I54" s="14">
+        <v>1828</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -6676,15 +6652,14 @@
       <c r="R54">
         <v>1</v>
       </c>
-      <c r="S54">
-        <v>2.9099999999999999E-5</v>
+      <c r="S54" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
-      <c r="U54" s="12">
-        <f>5+1</f>
-        <v>6</v>
+      <c r="U54" s="14">
+        <v>2</v>
       </c>
       <c r="V54" s="9">
         <v>92.5</v>
@@ -6744,14 +6719,14 @@
       <c r="F55">
         <v>500</v>
       </c>
-      <c r="G55" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H55">
-        <v>1576</v>
-      </c>
-      <c r="I55">
-        <v>1870</v>
+      <c r="G55" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I55" s="14">
+        <v>1828</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -6780,14 +6755,14 @@
       <c r="R55">
         <v>1</v>
       </c>
-      <c r="S55">
-        <v>2.9099999999999999E-5</v>
+      <c r="S55" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
-      <c r="U55">
-        <v>2</v>
+      <c r="U55" s="14">
+        <v>1</v>
       </c>
       <c r="V55" s="9">
         <v>16</v>
@@ -6947,14 +6922,14 @@
       <c r="F57">
         <v>500</v>
       </c>
-      <c r="G57" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H57">
-        <v>1576</v>
-      </c>
-      <c r="I57">
-        <v>1870</v>
+      <c r="G57" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H57" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I57" s="14">
+        <v>1828</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -6983,15 +6958,14 @@
       <c r="R57">
         <v>1</v>
       </c>
-      <c r="S57">
-        <v>2.9099999999999999E-5</v>
+      <c r="S57" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
-      <c r="U57" s="12">
-        <f t="shared" ref="U57" si="19">5-1</f>
-        <v>4</v>
+      <c r="U57" s="14">
+        <v>2</v>
       </c>
       <c r="V57" s="9">
         <v>22</v>
@@ -7051,14 +7025,14 @@
       <c r="F58">
         <v>500</v>
       </c>
-      <c r="G58" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H58">
-        <v>1576</v>
-      </c>
-      <c r="I58">
-        <v>1870</v>
+      <c r="G58" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H58" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I58" s="14">
+        <v>1828</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -7155,14 +7129,14 @@
       <c r="F59">
         <v>500</v>
       </c>
-      <c r="G59" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H59">
-        <v>1576</v>
-      </c>
-      <c r="I59">
-        <v>1870</v>
+      <c r="G59" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H59" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I59" s="14">
+        <v>1828</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -7191,15 +7165,14 @@
       <c r="R59">
         <v>1</v>
       </c>
-      <c r="S59">
-        <v>2.9099999999999999E-5</v>
+      <c r="S59" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T59">
         <v>0</v>
       </c>
-      <c r="U59" s="12">
-        <f t="shared" ref="U59" si="20">5-1</f>
-        <v>4</v>
+      <c r="U59" s="14">
+        <v>2</v>
       </c>
       <c r="V59" s="9">
         <v>39</v>
@@ -7359,14 +7332,14 @@
       <c r="F61">
         <v>500</v>
       </c>
-      <c r="G61" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H61">
-        <v>1576</v>
-      </c>
-      <c r="I61">
-        <v>1870</v>
+      <c r="G61" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H61" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I61" s="14">
+        <v>1828</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -7395,15 +7368,14 @@
       <c r="R61">
         <v>1</v>
       </c>
-      <c r="S61">
-        <v>2.9099999999999999E-5</v>
+      <c r="S61" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
-      <c r="U61" s="12">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U61" s="14">
+        <v>3</v>
       </c>
       <c r="V61" s="9">
         <v>26.3</v>
@@ -7463,14 +7435,14 @@
       <c r="F62">
         <v>500</v>
       </c>
-      <c r="G62" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H62">
-        <v>1576</v>
-      </c>
-      <c r="I62">
-        <v>1870</v>
+      <c r="G62" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H62" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I62" s="14">
+        <v>1828</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -7762,14 +7734,14 @@
       <c r="F65">
         <v>500</v>
       </c>
-      <c r="G65" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H65">
-        <v>1576</v>
-      </c>
-      <c r="I65">
-        <v>1870</v>
+      <c r="G65" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H65" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I65" s="14">
+        <v>1828</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -7798,15 +7770,14 @@
       <c r="R65">
         <v>1</v>
       </c>
-      <c r="S65">
-        <v>2.9099999999999999E-5</v>
+      <c r="S65" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
-      <c r="U65" s="12">
-        <f t="shared" ref="U65" si="21">5-1</f>
-        <v>4</v>
+      <c r="U65" s="14">
+        <v>2</v>
       </c>
       <c r="V65" s="9">
         <v>24</v>
@@ -7866,14 +7837,14 @@
       <c r="F66">
         <v>500</v>
       </c>
-      <c r="G66" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H66">
-        <v>1576</v>
-      </c>
-      <c r="I66">
-        <v>1870</v>
+      <c r="G66" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H66" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I66" s="14">
+        <v>1828</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -7970,14 +7941,14 @@
       <c r="F67">
         <v>500</v>
       </c>
-      <c r="G67" s="1">
-        <v>220000</v>
-      </c>
-      <c r="H67">
-        <v>1576</v>
-      </c>
-      <c r="I67">
-        <v>1870</v>
+      <c r="G67" s="14">
+        <v>215000</v>
+      </c>
+      <c r="H67" s="15">
+        <v>1412.67</v>
+      </c>
+      <c r="I67" s="14">
+        <v>1828</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -8006,14 +7977,14 @@
       <c r="R67">
         <v>1</v>
       </c>
-      <c r="S67">
-        <v>2.9099999999999999E-5</v>
+      <c r="S67" s="14">
+        <v>9.1649999999999992E-5</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
-      <c r="U67">
-        <v>2</v>
+      <c r="U67" s="14">
+        <v>1</v>
       </c>
       <c r="V67" s="9">
         <v>35</v>
